--- a/Cloud-Learning.xlsx
+++ b/Cloud-Learning.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
+    <sheet name="Index" sheetId="2" r:id="rId2"/>
+    <sheet name="Project1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Topics</t>
   </si>
@@ -131,13 +133,41 @@
   </si>
   <si>
     <t>EXAM DOMAIN REVIEW</t>
+  </si>
+  <si>
+    <t>Project1</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Deploy a AWS EC2 instance with docker</t>
+  </si>
+  <si>
+    <t>Pull an application image into this EC2 instance</t>
+  </si>
+  <si>
+    <t>Run this application and generate a log in a file</t>
+  </si>
+  <si>
+    <t>There should a CI pipeline to integrate code from github and generate docker image</t>
+  </si>
+  <si>
+    <t>There should a CD pipeline to deploy into a AWS instnce and run the application</t>
+  </si>
+  <si>
+    <t>2_______
+========</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +179,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,38 +267,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,8 +298,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -577,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -604,516 +649,514 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="5">
         <v>45180</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="5">
         <v>45180</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>45180</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>45182</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="C3:C13"/>
+    <mergeCell ref="D3:D13"/>
     <mergeCell ref="A62:A71"/>
     <mergeCell ref="A33:A37"/>
     <mergeCell ref="C33:C37"/>
@@ -1121,10 +1164,102 @@
     <mergeCell ref="A14:A32"/>
     <mergeCell ref="C14:C32"/>
     <mergeCell ref="D14:D32"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="C3:C13"/>
-    <mergeCell ref="D3:D13"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A53:A61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" location="Project1!A1" display="Project1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="70.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Index!A1" display="Index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>